--- a/Extra files/windhaan_excel_1.xlsx
+++ b/Extra files/windhaan_excel_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wouth\OneDrive\Documenten\Runes of Magic\school\6EE\GIP\windhaan_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptiz-my.sharepoint.com/personal/stijn_deschrijver_school_ptiz_be/Documents/github/GIP/Extra files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B4273FB-866C-409B-8414-4DCB32D607A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{4B4273FB-866C-409B-8414-4DCB32D607A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17812238-42BB-4857-8F41-EE6CBD2CE8CE}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{50FC4FC6-78D9-445B-99F4-55C4A0788A29}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50FC4FC6-78D9-445B-99F4-55C4A0788A29}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,6 +520,7 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,6 +1141,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001E6B235D22DE2F468975FE186970B6A7" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="950ede4bbf944e30c41221f42ebe5caf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="32a544f3-2bed-4a57-81e1-00e86d4d0f21" xmlns:ns4="7ef6c453-a392-47ee-95b6-9ad24436bb38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f1b15a7ce5f46bcef9c6f1b38db1a64" ns3:_="" ns4:_="">
     <xsd:import namespace="32a544f3-2bed-4a57-81e1-00e86d4d0f21"/>
@@ -1356,36 +1372,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{214F6E7C-FB64-4454-BF74-1469CCF857A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59609C33-E037-406B-B4BC-C0B46DC9B487}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="32a544f3-2bed-4a57-81e1-00e86d4d0f21"/>
-    <ds:schemaRef ds:uri="7ef6c453-a392-47ee-95b6-9ad24436bb38"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1408,9 +1398,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59609C33-E037-406B-B4BC-C0B46DC9B487}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{214F6E7C-FB64-4454-BF74-1469CCF857A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="32a544f3-2bed-4a57-81e1-00e86d4d0f21"/>
+    <ds:schemaRef ds:uri="7ef6c453-a392-47ee-95b6-9ad24436bb38"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>